--- a/Activity_1_Data.xlsx
+++ b/Activity_1_Data.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">label</t>
+    <t xml:space="preserve">customer_id</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -1311,11 +1311,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43584122"/>
-        <c:axId val="67977296"/>
+        <c:axId val="36598788"/>
+        <c:axId val="8276748"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43584122"/>
+        <c:axId val="36598788"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,12 +1358,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67977296"/>
+        <c:crossAx val="8276748"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67977296"/>
+        <c:axId val="8276748"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1406,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43584122"/>
+        <c:crossAx val="36598788"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1445,9 +1445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1456,7 +1456,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2755800" y="520560"/>
-        <a:ext cx="5790600" cy="2742480"/>
+        <a:ext cx="5790240" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1477,7 +1477,7 @@
   <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
